--- a/biology/Botanique/Limonium_dendroides/Limonium_dendroides.xlsx
+++ b/biology/Botanique/Limonium_dendroides/Limonium_dendroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Limodium dendroides désigne une espèce de plantes arbustives de la famille des Plumbaginaceae. Elle est endémique des îles Canaries où elle n'est plus représentée que par 28 spécimens sauvages répartis dans 3 petites zones.
 </t>
